--- a/sample file/tax_certificate_sample2.xlsx
+++ b/sample file/tax_certificate_sample2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">2021 – 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.21, 1.4.21, 19.7.21, 2.11.21, </t>
+    <t xml:space="preserve">7.2.21, 1.4.21, 19.7.21, 2.11.21 </t>
   </si>
   <si>
     <t xml:space="preserve">585, 132, 31, 58 </t>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">Md. Kamrul Islam</t>
   </si>
   <si>
+    <t xml:space="preserve">7.2.21, 1.4.21, 19.7.21, 2.11.21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Md. Mamun Ahmed</t>
   </si>
   <si>
@@ -122,6 +125,15 @@
   </si>
   <si>
     <t xml:space="preserve">Md. Shikder Shondhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2.21, 1.4.21, 19.7.21, 2.11.21, 3.11.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">585, 132, 31, 58, 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">417, 417, 417, 2085, 6521</t>
   </si>
 </sst>
 </file>
@@ -293,8 +305,8 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,7 +316,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="26.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -457,7 +469,7 @@
         <v>3336</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>22</v>
@@ -468,7 +480,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -511,7 +523,7 @@
         <v>3336</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>22</v>
@@ -522,7 +534,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -565,7 +577,7 @@
         <v>3336</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>22</v>
@@ -576,7 +588,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
@@ -619,7 +631,7 @@
         <v>3336</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>22</v>
@@ -630,7 +642,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -673,7 +685,7 @@
         <v>3336</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>22</v>
@@ -684,7 +696,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -727,7 +739,7 @@
         <v>3336</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>22</v>
@@ -738,7 +750,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -781,7 +793,7 @@
         <v>3336</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>22</v>
@@ -792,7 +804,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -835,7 +847,7 @@
         <v>3336</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>22</v>
@@ -846,7 +858,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
@@ -889,7 +901,7 @@
         <v>3336</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>22</v>
@@ -900,7 +912,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -943,13 +955,13 @@
         <v>3336</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
